--- a/Config.xlsx
+++ b/Config.xlsx
@@ -541,7 +541,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -598,24 +598,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -623,10 +607,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -721,7 +701,7 @@
       <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.43"/>
@@ -845,19 +825,19 @@
   <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="J40" activeCellId="0" sqref="J40"/>
+      <selection pane="bottomLeft" activeCell="J47" activeCellId="0" sqref="J47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.03125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="24.13671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="51.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="119.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -955,8 +935,8 @@
         <v>abs(diff_pct)/100*n&gt;2</v>
       </c>
       <c r="J3" s="9" t="str">
-        <f aca="false">CONCATENATE("if ((",I3," &amp; ", I5, ") &amp; ( ", I6, " | ", I2, ")) {flag= -1};")</f>
-        <v>if ((abs(diff_pct)/100*n&gt;2 &amp; diff_pct&lt; -10) &amp; ( p_value&lt;0.05 | r==0)) {flag= -1};</v>
+        <f aca="false">CONCATENATE("(", I3," &amp; ", I5, ") &amp; ( ", I6, " | ", I2, ")")</f>
+        <v>(abs(diff_pct)/100*n&gt;2 &amp; diff_pct&lt; -10) &amp; ( p_value&lt;0.05 | r==0)</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>-1</v>
@@ -990,8 +970,8 @@
         <v>diff_pct&gt;10</v>
       </c>
       <c r="J4" s="2" t="str">
-        <f aca="false">CONCATENATE("if (",I3," &amp;",I4, " &amp; ", I6,") {flag= 1};")</f>
-        <v>if (abs(diff_pct)/100*n&gt;2 &amp;diff_pct&gt;10 &amp; p_value&lt;0.05) {flag= 1};</v>
+        <f aca="false">CONCATENATE(I3," &amp;",I4, " &amp; ", I6)</f>
+        <v>abs(diff_pct)/100*n&gt;2 &amp;diff_pct&gt;10 &amp; p_value&lt;0.05</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>1</v>
@@ -1167,7 +1147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
         <v>111206</v>
       </c>
@@ -1191,8 +1171,8 @@
         <v>-2.5</v>
       </c>
       <c r="I11" s="10" t="str">
-        <f aca="false">CONCATENATE(F11, " &lt;", H11)</f>
-        <v>foldchange &lt;-2.5</v>
+        <f aca="false">CONCATENATE(F11, " &lt; ", H11)</f>
+        <v>foldchange &lt; -2.5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1224,7 +1204,7 @@
       </c>
       <c r="J12" s="2" t="str">
         <f aca="false">CONCATENATE(I13," &amp; ",  I9," &amp; ", I11)</f>
-        <v>adjusted_p_value&lt; 0.05 &amp; diff_cnt &lt; -2 &amp; foldchange &lt;-2.5</v>
+        <v>adjusted_p_value&lt; 0.05 &amp; diff_cnt &lt; -2 &amp; foldchange &lt; -2.5</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>-1</v>
@@ -2207,8 +2187,8 @@
         <v>p_value&lt;0.05</v>
       </c>
       <c r="J46" s="12" t="str">
-        <f aca="false">CONCATENATE(I41, " &amp; ", I42, " &amp; ", I43, " &amp; ", I45, " &amp; ", I46, " &amp; (", I47, " | ", I48, " | ", I49)</f>
-        <v>n&gt;=5 &amp; r&gt;=3 &amp; site_pct&gt;30 &amp; diff_pct&gt;20 &amp; p_value&lt;0.05 &amp; (site_max_diff_pct&gt;35 | sum_site_top2_diff_pct&gt;55 | sum_site_top3_diff_pct&gt;75</v>
+        <f aca="false">CONCATENATE(I41, " &amp; ", I42, " &amp; ", I43, " &amp; ", I45, " &amp; ", I46, " &amp; (", I47, " | ", I48, " | ", I49, ")")</f>
+        <v>n&gt;=5 &amp; r&gt;=3 &amp; site_pct&gt;30 &amp; diff_pct&gt;20 &amp; p_value&lt;0.05 &amp; (site_max_diff_pct&gt;35 | sum_site_top2_diff_pct&gt;55 | sum_site_top3_diff_pct&gt;75)</v>
       </c>
       <c r="K46" s="13" t="n">
         <v>1</v>
@@ -2300,51 +2280,47 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="18"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="10"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="18"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="10"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="18"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="10"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="18"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="10"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E54" s="8"/>
@@ -2442,15 +2418,15 @@
       <selection pane="topLeft" activeCell="E37" activeCellId="0" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="36.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="36.9296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="19" width="15.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="19" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="15" width="15.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="15" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="27.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="23.57"/>
@@ -2473,10 +2449,10 @@
       <c r="E1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="16" t="s">
         <v>71</v>
       </c>
       <c r="H1" s="8" t="s">
@@ -2506,10 +2482,10 @@
       <c r="E2" s="8" t="n">
         <v>-3</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="16" t="s">
         <v>77</v>
       </c>
       <c r="H2" s="8"/>
@@ -2537,20 +2513,20 @@
       <c r="E3" s="8" t="n">
         <v>-2</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="16" t="s">
         <v>77</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="8" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2568,18 +2544,18 @@
       <c r="E4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="20"/>
+      <c r="G4" s="16"/>
       <c r="H4" s="8"/>
       <c r="I4" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="8" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2597,10 +2573,10 @@
       <c r="E5" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="16" t="s">
         <v>89</v>
       </c>
       <c r="H5" s="8"/>
@@ -2628,10 +2604,10 @@
       <c r="E6" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="16" t="s">
         <v>89</v>
       </c>
       <c r="H6" s="8"/>
@@ -2659,10 +2635,10 @@
       <c r="E7" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="20"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="8" t="s">
         <v>92</v>
       </c>
@@ -2689,10 +2665,10 @@
       <c r="E8" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="20"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="8" t="s">
         <v>97</v>
       </c>
@@ -2720,10 +2696,10 @@
       <c r="E9" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="20"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="8"/>
       <c r="I9" s="11" t="s">
         <v>101</v>
@@ -2749,10 +2725,10 @@
       <c r="E10" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="20"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="8"/>
       <c r="I10" s="11" t="s">
         <v>103</v>
@@ -2765,8 +2741,8 @@
       </c>
     </row>
     <row r="11" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
       <c r="I11" s="11"/>
     </row>
   </sheetData>
@@ -2792,7 +2768,7 @@
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.01171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.08203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="69.85"/>
@@ -2819,7 +2795,7 @@
       <c r="A2" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="17" t="s">
         <v>109</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -2834,7 +2810,7 @@
       <c r="A3" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="17" t="s">
         <v>109</v>
       </c>
       <c r="C3" s="0" t="s">
@@ -2849,7 +2825,7 @@
       <c r="A4" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="17" t="s">
         <v>109</v>
       </c>
       <c r="C4" s="0" t="s">
@@ -2864,7 +2840,7 @@
       <c r="A5" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="17" t="s">
         <v>109</v>
       </c>
       <c r="C5" s="0" t="s">
@@ -2879,7 +2855,7 @@
       <c r="A6" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="17" t="s">
         <v>109</v>
       </c>
       <c r="C6" s="0" t="s">
@@ -2894,7 +2870,7 @@
       <c r="A7" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="17" t="s">
         <v>109</v>
       </c>
       <c r="C7" s="0" t="s">
@@ -2909,7 +2885,7 @@
       <c r="A8" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="17" t="s">
         <v>109</v>
       </c>
       <c r="C8" s="0" t="s">
@@ -2924,7 +2900,7 @@
       <c r="A9" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="17" t="s">
         <v>109</v>
       </c>
       <c r="C9" s="0" t="s">
@@ -2939,7 +2915,7 @@
       <c r="A10" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="17" t="s">
         <v>109</v>
       </c>
       <c r="C10" s="0" t="s">
@@ -2954,7 +2930,7 @@
       <c r="A11" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="17" t="s">
         <v>109</v>
       </c>
       <c r="C11" s="0" t="s">
@@ -2966,8 +2942,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Config.xlsx
+++ b/Config.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="127">
   <si>
     <t xml:space="preserve">Analysis</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t xml:space="preserve">hr, temp, resp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_value &gt; 0.05</t>
   </si>
   <si>
     <t xml:space="preserve">GV</t>
@@ -701,7 +704,7 @@
       <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.43"/>
@@ -824,20 +827,20 @@
   </sheetPr>
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="J47" activeCellId="0" sqref="J47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="K33" activeCellId="0" sqref="K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.13671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="24.21875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="119.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="119.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1790,6 +1793,12 @@
         <f aca="false">CONCATENATE(F32, " &gt; ", H32)</f>
         <v>oddsRatio &gt; 4</v>
       </c>
+      <c r="J32" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
@@ -1890,13 +1899,13 @@
         <v>44424</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>47</v>
@@ -1918,13 +1927,13 @@
         <v>44424</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F37" s="11" t="s">
         <v>48</v>
@@ -1942,13 +1951,13 @@
         <v>44424</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F38" s="11" t="s">
         <v>33</v>
@@ -1971,13 +1980,13 @@
         <v>44424</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>31</v>
@@ -2000,13 +2009,13 @@
         <v>44424</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>34</v>
@@ -2035,13 +2044,13 @@
         <v>44424</v>
       </c>
       <c r="C41" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>59</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>29</v>
@@ -2063,13 +2072,13 @@
         <v>44424</v>
       </c>
       <c r="C42" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>59</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>31</v>
@@ -2091,13 +2100,13 @@
         <v>44424</v>
       </c>
       <c r="C43" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>59</v>
       </c>
       <c r="F43" s="11" t="s">
         <v>47</v>
@@ -2119,13 +2128,13 @@
         <v>44424</v>
       </c>
       <c r="C44" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>59</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>48</v>
@@ -2140,13 +2149,13 @@
         <v>44424</v>
       </c>
       <c r="C45" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E45" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>59</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>33</v>
@@ -2168,13 +2177,13 @@
         <v>44424</v>
       </c>
       <c r="C46" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E46" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>59</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>34</v>
@@ -2183,12 +2192,12 @@
         <v>0.05</v>
       </c>
       <c r="I46" s="13" t="str">
-        <f aca="false">CONCATENATE(F46, "&lt;", H46)</f>
-        <v>p_value&lt;0.05</v>
+        <f aca="false">CONCATENATE(F46, " &lt; ", H46)</f>
+        <v>p_value &lt; 0.05</v>
       </c>
       <c r="J46" s="12" t="str">
         <f aca="false">CONCATENATE(I41, " &amp; ", I42, " &amp; ", I43, " &amp; ", I45, " &amp; ", I46, " &amp; (", I47, " | ", I48, " | ", I49, ")")</f>
-        <v>n&gt;=5 &amp; r&gt;=3 &amp; site_pct&gt;30 &amp; diff_pct&gt;20 &amp; p_value&lt;0.05 &amp; (site_max_diff_pct&gt;35 | sum_site_top2_diff_pct&gt;55 | sum_site_top3_diff_pct&gt;75)</v>
+        <v>n&gt;=5 &amp; r&gt;=3 &amp; site_pct&gt;30 &amp; diff_pct&gt;20 &amp; p_value &lt; 0.05 &amp; (site_max_diff_pct&gt;35 | sum_site_top2_diff_pct&gt;55 | sum_site_top3_diff_pct&gt;75)</v>
       </c>
       <c r="K46" s="13" t="n">
         <v>1</v>
@@ -2202,16 +2211,16 @@
         <v>44424</v>
       </c>
       <c r="C47" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D47" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>59</v>
-      </c>
       <c r="F47" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H47" s="13" t="n">
         <v>35</v>
@@ -2230,16 +2239,16 @@
         <v>44424</v>
       </c>
       <c r="C48" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E48" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D48" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>59</v>
-      </c>
       <c r="F48" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H48" s="13" t="n">
         <v>55</v>
@@ -2258,16 +2267,16 @@
         <v>44424</v>
       </c>
       <c r="C49" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D49" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>59</v>
-      </c>
       <c r="F49" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H49" s="13" t="n">
         <v>75</v>
@@ -2418,7 +2427,7 @@
       <selection pane="topLeft" activeCell="E37" activeCellId="0" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="36.9296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="37.046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.42"/>
@@ -2435,42 +2444,42 @@
   <sheetData>
     <row r="1" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8" t="s">
@@ -2486,26 +2495,26 @@
         <v>33</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D3" s="8" t="n">
         <v>-1</v>
@@ -2517,22 +2526,22 @@
         <v>40</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
@@ -2550,18 +2559,18 @@
       <c r="G4" s="16"/>
       <c r="H4" s="8"/>
       <c r="I4" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
@@ -2577,26 +2586,26 @@
         <v>33</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D6" s="8" t="n">
         <v>1</v>
@@ -2608,26 +2617,26 @@
         <v>40</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D7" s="8" t="n">
         <v>1</v>
@@ -2640,21 +2649,21 @@
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>46</v>
@@ -2670,25 +2679,25 @@
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D9" s="8" t="n">
         <v>1</v>
@@ -2702,22 +2711,22 @@
       <c r="G9" s="16"/>
       <c r="H9" s="8"/>
       <c r="I9" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D10" s="8" t="n">
         <v>1</v>
@@ -2731,13 +2740,13 @@
       <c r="G10" s="16"/>
       <c r="H10" s="8"/>
       <c r="I10" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2768,7 +2777,7 @@
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.08203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="69.85"/>
@@ -2779,27 +2788,27 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D2" s="0" t="str">
         <f aca="false">CONCATENATE(B2, "/", C2)</f>
@@ -2808,13 +2817,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D3" s="0" t="str">
         <f aca="false">CONCATENATE(B3, "/", C3)</f>
@@ -2823,13 +2832,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D4" s="0" t="str">
         <f aca="false">CONCATENATE(B4, "/", C4)</f>
@@ -2838,13 +2847,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D5" s="0" t="str">
         <f aca="false">CONCATENATE(B5, "/", C5)</f>
@@ -2853,13 +2862,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>117</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>116</v>
       </c>
       <c r="D6" s="0" t="str">
         <f aca="false">CONCATENATE(B6, "/", C6)</f>
@@ -2871,10 +2880,10 @@
         <v>46</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D7" s="0" t="str">
         <f aca="false">CONCATENATE(B7, "/", C7)</f>
@@ -2883,13 +2892,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D8" s="0" t="str">
         <f aca="false">CONCATENATE(B8, "/", C8)</f>
@@ -2898,13 +2907,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D9" s="0" t="str">
         <f aca="false">CONCATENATE(B9, "/", C9)</f>
@@ -2913,13 +2922,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D10" s="0" t="str">
         <f aca="false">CONCATENATE(B10, "/", C10)</f>
@@ -2928,13 +2937,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D11" s="0" t="str">
         <f aca="false">CONCATENATE(B11, "/", C11)</f>

--- a/Config.xlsx
+++ b/Config.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="126">
   <si>
     <t xml:space="preserve">Analysis</t>
   </si>
@@ -224,9 +224,6 @@
   </si>
   <si>
     <t xml:space="preserve">hr, temp, resp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p_value &gt; 0.05</t>
   </si>
   <si>
     <t xml:space="preserve">GV</t>
@@ -827,9 +824,9 @@
   </sheetPr>
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="K33" activeCellId="0" sqref="K33"/>
     </sheetView>
   </sheetViews>
@@ -1766,7 +1763,7 @@
         <v>site_value_cnt &gt; 8</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
         <v>111206</v>
       </c>
@@ -1793,12 +1790,6 @@
         <f aca="false">CONCATENATE(F32, " &gt; ", H32)</f>
         <v>oddsRatio &gt; 4</v>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K32" s="0" t="n">
-        <v>30</v>
-      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
@@ -1899,13 +1890,13 @@
         <v>44424</v>
       </c>
       <c r="C36" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="E36" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>60</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>47</v>
@@ -1927,13 +1918,13 @@
         <v>44424</v>
       </c>
       <c r="C37" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="E37" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>60</v>
       </c>
       <c r="F37" s="11" t="s">
         <v>48</v>
@@ -1951,13 +1942,13 @@
         <v>44424</v>
       </c>
       <c r="C38" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="E38" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>60</v>
       </c>
       <c r="F38" s="11" t="s">
         <v>33</v>
@@ -1980,13 +1971,13 @@
         <v>44424</v>
       </c>
       <c r="C39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="E39" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>60</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>31</v>
@@ -2009,13 +2000,13 @@
         <v>44424</v>
       </c>
       <c r="C40" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="E40" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>60</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>34</v>
@@ -2044,13 +2035,13 @@
         <v>44424</v>
       </c>
       <c r="C41" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="11" t="s">
-        <v>62</v>
-      </c>
       <c r="E41" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>29</v>
@@ -2072,13 +2063,13 @@
         <v>44424</v>
       </c>
       <c r="C42" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="11" t="s">
-        <v>62</v>
-      </c>
       <c r="E42" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>31</v>
@@ -2100,13 +2091,13 @@
         <v>44424</v>
       </c>
       <c r="C43" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="11" t="s">
-        <v>62</v>
-      </c>
       <c r="E43" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F43" s="11" t="s">
         <v>47</v>
@@ -2128,13 +2119,13 @@
         <v>44424</v>
       </c>
       <c r="C44" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D44" s="11" t="s">
-        <v>62</v>
-      </c>
       <c r="E44" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>48</v>
@@ -2149,13 +2140,13 @@
         <v>44424</v>
       </c>
       <c r="C45" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D45" s="11" t="s">
-        <v>62</v>
-      </c>
       <c r="E45" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>33</v>
@@ -2177,13 +2168,13 @@
         <v>44424</v>
       </c>
       <c r="C46" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D46" s="11" t="s">
-        <v>62</v>
-      </c>
       <c r="E46" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>34</v>
@@ -2211,16 +2202,16 @@
         <v>44424</v>
       </c>
       <c r="C47" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="E47" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F47" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>63</v>
       </c>
       <c r="H47" s="13" t="n">
         <v>35</v>
@@ -2239,16 +2230,16 @@
         <v>44424</v>
       </c>
       <c r="C48" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D48" s="11" t="s">
-        <v>62</v>
-      </c>
       <c r="E48" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H48" s="13" t="n">
         <v>55</v>
@@ -2267,16 +2258,16 @@
         <v>44424</v>
       </c>
       <c r="C49" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D49" s="11" t="s">
-        <v>62</v>
-      </c>
       <c r="E49" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H49" s="13" t="n">
         <v>75</v>
@@ -2444,42 +2435,42 @@
   <sheetData>
     <row r="1" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8" t="s">
@@ -2495,26 +2486,26 @@
         <v>33</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="8" t="n">
         <v>-1</v>
@@ -2526,22 +2517,22 @@
         <v>40</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
@@ -2559,18 +2550,18 @@
       <c r="G4" s="16"/>
       <c r="H4" s="8"/>
       <c r="I4" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="K4" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
@@ -2586,26 +2577,26 @@
         <v>33</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="K5" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" s="8" t="n">
         <v>1</v>
@@ -2617,26 +2608,26 @@
         <v>40</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="K6" s="11" t="s">
         <v>84</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D7" s="8" t="n">
         <v>1</v>
@@ -2649,21 +2640,21 @@
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="J7" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="K7" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>46</v>
@@ -2679,25 +2670,25 @@
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="J8" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>100</v>
-      </c>
       <c r="K8" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9" s="8" t="n">
         <v>1</v>
@@ -2711,22 +2702,22 @@
       <c r="G9" s="16"/>
       <c r="H9" s="8"/>
       <c r="I9" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J9" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="8" t="n">
         <v>1</v>
@@ -2740,13 +2731,13 @@
       <c r="G10" s="16"/>
       <c r="H10" s="8"/>
       <c r="I10" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J10" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="11" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2788,27 +2779,27 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="C2" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>111</v>
       </c>
       <c r="D2" s="0" t="str">
         <f aca="false">CONCATENATE(B2, "/", C2)</f>
@@ -2817,13 +2808,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>112</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>113</v>
       </c>
       <c r="D3" s="0" t="str">
         <f aca="false">CONCATENATE(B3, "/", C3)</f>
@@ -2832,13 +2823,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>114</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>115</v>
       </c>
       <c r="D4" s="0" t="str">
         <f aca="false">CONCATENATE(B4, "/", C4)</f>
@@ -2847,13 +2838,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>117</v>
       </c>
       <c r="D5" s="0" t="str">
         <f aca="false">CONCATENATE(B5, "/", C5)</f>
@@ -2862,13 +2853,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D6" s="0" t="str">
         <f aca="false">CONCATENATE(B6, "/", C6)</f>
@@ -2880,10 +2871,10 @@
         <v>46</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D7" s="0" t="str">
         <f aca="false">CONCATENATE(B7, "/", C7)</f>
@@ -2892,13 +2883,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>119</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>120</v>
       </c>
       <c r="D8" s="0" t="str">
         <f aca="false">CONCATENATE(B8, "/", C8)</f>
@@ -2907,13 +2898,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>121</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>122</v>
       </c>
       <c r="D9" s="0" t="str">
         <f aca="false">CONCATENATE(B9, "/", C9)</f>
@@ -2922,13 +2913,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>123</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>124</v>
       </c>
       <c r="D10" s="0" t="str">
         <f aca="false">CONCATENATE(B10, "/", C10)</f>
@@ -2937,13 +2928,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>125</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>126</v>
       </c>
       <c r="D11" s="0" t="str">
         <f aca="false">CONCATENATE(B11, "/", C11)</f>
